--- a/biosteam/biorefineries/lipidcane/Spearman correlation lipidcane.xlsx
+++ b/biosteam/biorefineries/lipidcane/Spearman correlation lipidcane.xlsx
@@ -37,6 +37,24 @@
     <t>Transesterification-U61 efficiency (0.81, 0.9, 0.99)</t>
   </si>
   <si>
+    <t>Mix tank base cost [USD] (1.09e+04, 1.21e+04, 1.33e+04)</t>
+  </si>
+  <si>
+    <t>Mix tank exponent (0.425, 0.525, 0.625)</t>
+  </si>
+  <si>
+    <t>Mix tank electricity rate [kW/m³] (0.0887, 0.0985, 0.108)</t>
+  </si>
+  <si>
+    <t>Crushing mill base cost [USD] (1.35e+06, 1.5e+06, 1.65e+06)</t>
+  </si>
+  <si>
+    <t>Crushing mill exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Crushing mill electricity rate [hr·kW/kg] (0.0054, 0.006, 0.0066)</t>
+  </si>
+  <si>
     <t>Liquids centrifuge base cost [USD] (2.53e+04, 2.81e+04, 3.09e+04)</t>
   </si>
   <si>
@@ -46,13 +64,142 @@
     <t>Liquids centrifuge electricity rate [hr·kW/m³] (3.29, 3.66, 4.03)</t>
   </si>
   <si>
-    <t>Mix tank base cost [USD] (1.09e+04, 1.21e+04, 1.33e+04)</t>
-  </si>
-  <si>
-    <t>Mix tank exponent (0.425, 0.525, 0.625)</t>
-  </si>
-  <si>
-    <t>Mix tank electricity rate [kW/m³] (0.0887, 0.0985, 0.108)</t>
+    <t>Vibrating screen base cost [USD] (909, 1.01e+03, 1.11e+03)</t>
+  </si>
+  <si>
+    <t>Vibrating screen exponent (0.81, 0.91, 1)</t>
+  </si>
+  <si>
+    <t>Transesterification reactor base cost [USD] (1.35e+04, 1.5e+04, 1.65e+04)</t>
+  </si>
+  <si>
+    <t>Transesterification reactor exponent (0.45, 0.55, 0.65)</t>
+  </si>
+  <si>
+    <t>Transesterification reactor electricity rate [kW/m3] (1.35, 1.5, 1.65)</t>
+  </si>
+  <si>
+    <t>Conveying belt base cost [USD] (732, 813, 894)</t>
+  </si>
+  <si>
+    <t>Conveying belt exponent (0.28, 0.38, 0.48)</t>
+  </si>
+  <si>
+    <t>Shredder base cost [USD] (2.25e+06, 2.5e+06, 2.75e+06)</t>
+  </si>
+  <si>
+    <t>Shredder exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Shredder electricity rate [hr·kW/kg] (0.0054, 0.006, 0.0066)</t>
+  </si>
+  <si>
+    <t>Fermentation reactors base cost [USD] (7.6e+05, 8.44e+05, 9.28e+05)</t>
+  </si>
+  <si>
+    <t>Fermentation reactors exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Fermentation agitators base cost [USD] (4.72e+04, 5.25e+04, 5.78e+04)</t>
+  </si>
+  <si>
+    <t>Fermentation agitators exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Fermentation agitators electricity rate [kW/m3] (0.00532, 0.00591, 0.0065)</t>
+  </si>
+  <si>
+    <t>Fermentation cleaning in place base cost [USD] (3.79e+05, 4.21e+05, 4.63e+05)</t>
+  </si>
+  <si>
+    <t>Fermentation cleaning in place exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler base cost [USD] (2.57e+07, 2.86e+07, 3.14e+07)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler electricity rate [hr·kW/kg] (0.0104, 0.0115, 0.0127)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator base cost [USD] (2.74e+05, 3.05e+05, 3.36e+05)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg base cost [USD] (3.6e+04, 4e+04, 4.4e+04)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system base cost [USD] (7.02e+04, 7.8e+04, 8.58e+04)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator base cost [USD] (8.55e+06, 9.5e+06, 1.04e+07)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Magnetic separator base cost [USD] (4.8e+05, 5.33e+05, 5.87e+05)</t>
+  </si>
+  <si>
+    <t>Magnetic separator exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Vent scrubber base cost [USD] (1.94e+05, 2.15e+05, 2.37e+05)</t>
+  </si>
+  <si>
+    <t>Vent scrubber exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Solids centrifuge base cost [USD] (6.12e+04, 6.8e+04, 7.48e+04)</t>
+  </si>
+  <si>
+    <t>Solids centrifuge exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Cooling tower base cost [USD] (1.24e+06, 1.38e+06, 1.51e+06)</t>
+  </si>
+  <si>
+    <t>Cooling tower exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Cooling tower electricity rate [hr·kW/kmol] (0.00258, 0.00287, 0.00315)</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump base cost [USD] (2.55e+05, 2.84e+05, 3.12e+05)</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump electricity rate [hr·kW/kmol] (0.00165, 0.00183, 0.00202)</t>
+  </si>
+  <si>
+    <t>Chilled water package base cost [USD] (1.24e+06, 1.38e+06, 1.51e+06)</t>
+  </si>
+  <si>
+    <t>Chilled water package exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Chilled water package electricity rate [hr·kW/kJ] (-3.9e-05, -4.33e-05, -4.76e-05)</t>
+  </si>
+  <si>
+    <t>Molecular sieve column base cost [USD] (2.34e+06, 2.6e+06, 2.86e+06)</t>
+  </si>
+  <si>
+    <t>Molecular sieve column exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Molecular sieve column electricity rate [hr·kW/kg] (0.00599, 0.00666, 0.00732)</t>
   </si>
   <si>
     <t>Process water center tank base cost [USD] (2.25e+05, 2.5e+05, 2.75e+05)</t>
@@ -79,69 +226,6 @@
     <t>Process water center makeup water pump electricity rate [hr·kW/kg] (8.63e-05, 9.59e-05, 0.000105)</t>
   </si>
   <si>
-    <t>Vibrating screen base cost [USD] (909, 1.01e+03, 1.11e+03)</t>
-  </si>
-  <si>
-    <t>Vibrating screen exponent (0.81, 0.91, 1)</t>
-  </si>
-  <si>
-    <t>Transesterification reactor base cost [USD] (1.35e+04, 1.5e+04, 1.65e+04)</t>
-  </si>
-  <si>
-    <t>Transesterification reactor exponent (0.45, 0.55, 0.65)</t>
-  </si>
-  <si>
-    <t>Transesterification reactor electricity rate [kW/m3] (1.35, 1.5, 1.65)</t>
-  </si>
-  <si>
-    <t>Magnetic separator base cost [USD] (4.8e+05, 5.33e+05, 5.87e+05)</t>
-  </si>
-  <si>
-    <t>Magnetic separator exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Shredder base cost [USD] (2.25e+06, 2.5e+06, 2.75e+06)</t>
-  </si>
-  <si>
-    <t>Shredder exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Shredder electricity rate [hr·kW/kg] (0.0054, 0.006, 0.0066)</t>
-  </si>
-  <si>
-    <t>Fermentation reactors base cost [USD] (7.6e+05, 8.44e+05, 9.28e+05)</t>
-  </si>
-  <si>
-    <t>Fermentation reactors exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Fermentation agitators base cost [USD] (4.72e+04, 5.25e+04, 5.78e+04)</t>
-  </si>
-  <si>
-    <t>Fermentation agitators exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Fermentation agitators electricity rate [kW/m3] (0.00532, 0.00591, 0.0065)</t>
-  </si>
-  <si>
-    <t>Fermentation cleaning in place base cost [USD] (3.79e+05, 4.21e+05, 4.63e+05)</t>
-  </si>
-  <si>
-    <t>Fermentation cleaning in place exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Vent scrubber base cost [USD] (1.94e+05, 2.15e+05, 2.37e+05)</t>
-  </si>
-  <si>
-    <t>Vent scrubber exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Solids centrifuge base cost [USD] (6.12e+04, 6.8e+04, 7.48e+04)</t>
-  </si>
-  <si>
-    <t>Solids centrifuge exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
     <t>Clarifier base cost [USD] (2.45e+03, 2.72e+03, 2.99e+03)</t>
   </si>
   <si>
@@ -151,127 +235,43 @@
     <t>Clarifier electricity rate [kW/ft²] (0.00045, 0.0005, 0.00055)</t>
   </si>
   <si>
-    <t>Boiler turbogenerator boiler base cost [USD] (2.57e+07, 2.86e+07, 3.14e+07)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler electricity rate [hr·kW/kg] (0.0104, 0.0115, 0.0127)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator base cost [USD] (2.74e+05, 3.05e+05, 3.36e+05)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg base cost [USD] (3.6e+04, 4e+04, 4.4e+04)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system base cost [USD] (7.02e+04, 7.8e+04, 8.58e+04)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator base cost [USD] (8.55e+06, 9.5e+06, 1.04e+07)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Molecular sieve column base cost [USD] (2.34e+06, 2.6e+06, 2.86e+06)</t>
-  </si>
-  <si>
-    <t>Molecular sieve column exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Molecular sieve column electricity rate [hr·kW/kg] (0.00599, 0.00666, 0.00732)</t>
-  </si>
-  <si>
-    <t>Crushing mill base cost [USD] (1.35e+06, 1.5e+06, 1.65e+06)</t>
-  </si>
-  <si>
-    <t>Crushing mill exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Crushing mill electricity rate [hr·kW/kg] (0.0054, 0.006, 0.0066)</t>
-  </si>
-  <si>
-    <t>Cooling tower base cost [USD] (1.24e+06, 1.38e+06, 1.51e+06)</t>
-  </si>
-  <si>
-    <t>Cooling tower exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Cooling tower electricity rate [hr·kW/kmol] (0.00258, 0.00287, 0.00315)</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump base cost [USD] (2.55e+05, 2.84e+05, 3.12e+05)</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump electricity rate [hr·kW/kmol] (0.00165, 0.00183, 0.00202)</t>
-  </si>
-  <si>
-    <t>Conveying belt base cost [USD] (732, 813, 894)</t>
-  </si>
-  <si>
-    <t>Conveying belt exponent (0.28, 0.38, 0.48)</t>
-  </si>
-  <si>
-    <t>Chilled water package base cost [USD] (1.24e+06, 1.38e+06, 1.51e+06)</t>
-  </si>
-  <si>
-    <t>Chilled water package exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Chilled water package electricity rate [hr·kW/kJ] (-3.9e-05, -4.33e-05, -4.76e-05)</t>
+    <t>Stream-Methanol price [USD/kg] (0.492, 0.547, 0.602)</t>
+  </si>
+  <si>
+    <t>Stream-Catalyst price [USD/kg] (2.64, 2.93, 3.22)</t>
+  </si>
+  <si>
+    <t>Stream-Lipid cane price [USD/kg] (0.0311, 0.0345, 0.038)</t>
+  </si>
+  <si>
+    <t>Stream-Water 3 price [USD/kg] (0.000318, 0.000353, 0.000388)</t>
+  </si>
+  <si>
+    <t>Stream-HCl1 price [USD/kg] (0.184, 0.205, 0.226)</t>
+  </si>
+  <si>
+    <t>Stream-Enzyme price [USD/kg] (0.45, 0.5, 0.55)</t>
+  </si>
+  <si>
+    <t>Stream-HCl2 price [USD/kg] (0.184, 0.205, 0.226)</t>
+  </si>
+  <si>
+    <t>Stream-Makeup water price [USD/kg] (0.000229, 0.000254, 0.000279)</t>
+  </si>
+  <si>
+    <t>Stream-NaOH price [USD/kg] (0.369, 0.41, 0.451)</t>
+  </si>
+  <si>
+    <t>Stream-BT makeup water price [USD/kg] (0.000229, 0.000254, 0.000279)</t>
+  </si>
+  <si>
+    <t>Stream-Denaturant price [USD/kg] (0.68, 0.756, 0.832)</t>
+  </si>
+  <si>
+    <t>Stream-CT makeup water price [USD/kg] (0.000229, 0.000254, 0.000279)</t>
   </si>
   <si>
     <t>Stream-Lime price [USD/kg] (0.0693, 0.077, 0.0847)</t>
-  </si>
-  <si>
-    <t>Stream-HCl1 price [USD/kg] (0.184, 0.205, 0.226)</t>
-  </si>
-  <si>
-    <t>Stream-HCl2 price [USD/kg] (0.184, 0.205, 0.226)</t>
-  </si>
-  <si>
-    <t>Stream-Makeup water price [USD/kg] (0.000229, 0.000254, 0.000279)</t>
-  </si>
-  <si>
-    <t>Stream-NaOH price [USD/kg] (0.369, 0.41, 0.451)</t>
-  </si>
-  <si>
-    <t>Stream-BT makeup water price [USD/kg] (0.000229, 0.000254, 0.000279)</t>
-  </si>
-  <si>
-    <t>Stream-Denaturant price [USD/kg] (0.68, 0.756, 0.832)</t>
-  </si>
-  <si>
-    <t>Stream-CT makeup water price [USD/kg] (0.000229, 0.000254, 0.000279)</t>
-  </si>
-  <si>
-    <t>Stream-Lipid cane price [USD/kg] (0.0311, 0.0345, 0.038)</t>
-  </si>
-  <si>
-    <t>Stream-Methanol price [USD/kg] (0.492, 0.547, 0.602)</t>
-  </si>
-  <si>
-    <t>Stream-Enzyme price [USD/kg] (0.45, 0.5, 0.55)</t>
-  </si>
-  <si>
-    <t>Stream-Catalyst price [USD/kg] (2.64, 2.93, 3.22)</t>
-  </si>
-  <si>
-    <t>Stream-Water 3 price [USD/kg] (0.000318, 0.000353, 0.000388)</t>
   </si>
   <si>
     <t>Stream-Waste price [USD/kg] (-0.297, -0.33, -0.363)</t>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1421365365461462</v>
+        <v>0.1489074392682976</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -695,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.02920082080328321</v>
+        <v>-0.01371808662872346</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -703,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.04247191388765555</v>
+        <v>0.01438361174334447</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -711,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4573585014340057</v>
+        <v>0.4125493626139745</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -719,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.01699053196212785</v>
+        <v>-0.004580713911228556</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -727,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.08139334957339829</v>
+        <v>0.08153027913321115</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -735,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.01300440401761607</v>
+        <v>-0.03007395614695824</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -743,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.04986893547574191</v>
+        <v>-0.08726177821047111</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -751,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.01795226380905523</v>
+        <v>0.02427870394714815</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -759,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.03328246912987651</v>
+        <v>-0.01010319054812762</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -767,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.06312716450865803</v>
+        <v>-0.01184182204167288</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -775,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.09472367489469957</v>
+        <v>-0.02606164040246561</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -783,7 +783,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.02362876651506606</v>
+        <v>-0.002168592566743702</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -791,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.04510261241044964</v>
+        <v>-0.01865648858625954</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -799,7 +799,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.04179722318889276</v>
+        <v>-0.005423827128953084</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -807,7 +807,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.02924162096648387</v>
+        <v>-0.001305849268233971</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -815,7 +815,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.04021984087936352</v>
+        <v>-0.01963210696128427</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -823,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.04222058488233953</v>
+        <v>0.01836697407867896</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -831,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.01426296905187621</v>
+        <v>0.0008151084806043391</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -839,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.0129688838755355</v>
+        <v>-0.01523788851351554</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -847,7 +847,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.0131500366001464</v>
+        <v>-0.008417030352681213</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -855,7 +855,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.056312289249157</v>
+        <v>0.01329372293174892</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -863,7 +863,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.0158373753495014</v>
+        <v>-0.00364319976172799</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -871,7 +871,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.04948541394165577</v>
+        <v>-0.01060390544815622</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -879,7 +879,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.06436009744038976</v>
+        <v>0.01528275200331008</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -887,7 +887,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.0266689066756267</v>
+        <v>-0.02080019891200795</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -895,7 +895,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.04063168252673011</v>
+        <v>0.0462690652107626</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -903,7 +903,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.05805920823683295</v>
+        <v>-0.02216050629442025</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -911,7 +911,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.01949258997035988</v>
+        <v>0.02398920940756837</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -919,7 +919,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.03470452281809128</v>
+        <v>-0.02272924295716972</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -927,7 +927,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.05396354385417541</v>
+        <v>0.01946697725867909</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -935,7 +935,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.1048686114744459</v>
+        <v>0.008528776181151046</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -943,7 +943,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.02809604838419353</v>
+        <v>-0.1070892446995698</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -951,7 +951,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.007656990627962512</v>
+        <v>0.04071700242868009</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -959,7 +959,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-0.03848568994275977</v>
+        <v>0.02043132120125284</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -967,7 +967,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.04786655946623786</v>
+        <v>0.001820433480817339</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -975,7 +975,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.07484823539294157</v>
+        <v>-0.01111756604470264</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -983,7 +983,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.06296309985239941</v>
+        <v>0.003989734239589369</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -991,7 +991,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.02118344473377893</v>
+        <v>-0.002654725642189025</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -999,7 +999,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.04576405505622022</v>
+        <v>0.0001039365161574606</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.05700886803547215</v>
+        <v>-0.01127233101089324</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.0183626654506618</v>
+        <v>-0.07251115442044616</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.03260336241344965</v>
+        <v>0.006671674634866985</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.1071440125760503</v>
+        <v>0.007562260334490413</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.2144228096912388</v>
+        <v>0.005065998154639926</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.04818576074304297</v>
+        <v>-0.02561896883275875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.006183288733154932</v>
+        <v>-0.0109487524379501</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.05911098844395377</v>
+        <v>-0.004431202353248094</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.05104542018168073</v>
+        <v>-0.01180357660014306</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.05389874359497438</v>
+        <v>0.001327440629097625</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.03412122448489793</v>
+        <v>0.03041047657641906</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.1149857079428317</v>
+        <v>-0.00606638376265535</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.004292465169860679</v>
+        <v>-0.018859049938362</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.05738269353077412</v>
+        <v>-0.004324153708966148</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.06987397549590199</v>
+        <v>-0.01574044181361767</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.02223810495241981</v>
+        <v>0.004839763681590547</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.02527229308917236</v>
+        <v>0.006794736079789442</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.04029011316045264</v>
+        <v>0.01133048934921957</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.01223505694022776</v>
+        <v>-0.008763394430535776</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-0.05925297301189204</v>
+        <v>-0.003605566992222679</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.04893427573710295</v>
+        <v>0.005564435646577425</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.0008592994371977487</v>
+        <v>0.03184222668168906</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.03031010524042095</v>
+        <v>0.01447029638681185</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.06695575582302329</v>
+        <v>0.009154599054183961</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.02001300805203221</v>
+        <v>0.004511885172475407</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.05172011088044352</v>
+        <v>0.01111271122850845</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-0.01947684590738363</v>
+        <v>-0.000189522151580886</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.01030583322333289</v>
+        <v>-0.006551501350060052</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-0.0146372745490982</v>
+        <v>-0.01445915616236624</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.09043716174864699</v>
+        <v>-0.0135111125404445</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.03224547298189193</v>
+        <v>-0.01843095913723836</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.03437725750903003</v>
+        <v>-0.03305357383414295</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.0004954579818319272</v>
+        <v>-0.01164247544169902</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.04500699602798411</v>
+        <v>-0.004405038320201532</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.04071683486733947</v>
+        <v>-0.4193366151094646</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.05767923871695486</v>
+        <v>0.009192987151719486</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.008756099024396096</v>
+        <v>0.006118880212755208</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.02251420205680823</v>
+        <v>-0.0266750377070015</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.02957263029052117</v>
+        <v>-0.0140867176194687</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.0456311905247621</v>
+        <v>-0.003317291556691662</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.3701814167256669</v>
+        <v>0.003268377442735097</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-0.08971418285673143</v>
+        <v>0.01162003313680132</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.005356053424213697</v>
+        <v>-0.02372088622883545</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.03517377269509078</v>
+        <v>-0.02800969628838785</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.005006612026448106</v>
+        <v>0.006205669880226795</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.007289309157236628</v>
+        <v>0.01780180170407206</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.4812852531410126</v>
+        <v>0.5333877997675119</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.02993695174780699</v>
+        <v>0.03182285234491409</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.1393980295921184</v>
+        <v>0.2504090100803604</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.03844661778647114</v>
+        <v>0.1091698456787938</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.02535869343477374</v>
+        <v>-0.008550597078023881</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.0004917139668558674</v>
+        <v>-0.005346315093852603</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.04842470569882279</v>
+        <v>0.009237635985505437</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.02798555194220777</v>
+        <v>0.007960153854406153</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.4469358357433429</v>
+        <v>0.3604550830262033</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.04229776919107676</v>
+        <v>-0.1064020095680804</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.1854125496501986</v>
+        <v>0.1839403168936126</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.02027307309229237</v>
+        <v>0.009936774445470977</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.171062508250033</v>
+        <v>0.1116135313445412</v>
       </c>
     </row>
   </sheetData>

--- a/biosteam/biorefineries/lipidcane/Spearman correlation lipidcane.xlsx
+++ b/biosteam/biorefineries/lipidcane/Spearman correlation lipidcane.xlsx
@@ -14,27 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Internal rate of return</t>
   </si>
   <si>
-    <t>Stream-Lipid cane flow rate [kg/hr] (3e+05, 3.33e+05, 3.67e+05)</t>
-  </si>
-  <si>
-    <t>Crushing mill-U4 lipid extraction rate (0.09, 0.1, 0.11)</t>
-  </si>
-  <si>
-    <t>Rotary vacuum filter-U19 solids retention (0.765, 0.85, 0.935)</t>
-  </si>
-  <si>
-    <t>Fermentation-U34 efficiency (0.81, 0.9, 0.99)</t>
-  </si>
-  <si>
-    <t>Transesterification-U58 efficiency (0.81, 0.9, 0.99)</t>
-  </si>
-  <si>
-    <t>Transesterification-U61 efficiency (0.81, 0.9, 0.99)</t>
+    <t>Stream-lipid cane flow rate [kg/hr] (3e+05, 3.33e+05, 3.67e+05)</t>
+  </si>
+  <si>
+    <t>Crushing mill-U201 lipid extraction rate (0.09, 0.1, 0.11)</t>
+  </si>
+  <si>
+    <t>Rotary vacuum filter-C202 solids retention (0.765, 0.85, 0.935)</t>
+  </si>
+  <si>
+    <t>Fermentation-R301 efficiency (0.81, 0.9, 0.99)</t>
+  </si>
+  <si>
+    <t>Transesterification-R401 efficiency (0.81, 0.9, 0.99)</t>
+  </si>
+  <si>
+    <t>Transesterification-R402 efficiency (0.81, 0.9, 0.99)</t>
   </si>
   <si>
     <t>Mix tank base cost [USD] (1.09e+04, 1.21e+04, 1.33e+04)</t>
@@ -46,6 +46,186 @@
     <t>Mix tank electricity rate [kW/m³] (0.0887, 0.0985, 0.108)</t>
   </si>
   <si>
+    <t>Vibrating screen base cost [USD] (909, 1.01e+03, 1.11e+03)</t>
+  </si>
+  <si>
+    <t>Vibrating screen exponent (0.81, 0.91, 1)</t>
+  </si>
+  <si>
+    <t>Molecular sieve column base cost [USD] (2.34e+06, 2.6e+06, 2.86e+06)</t>
+  </si>
+  <si>
+    <t>Molecular sieve column exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Molecular sieve column electricity rate [hr·kW/kg] (0.00599, 0.00666, 0.00732)</t>
+  </si>
+  <si>
+    <t>Fermentation reactors base cost [USD] (7.6e+05, 8.44e+05, 9.28e+05)</t>
+  </si>
+  <si>
+    <t>Fermentation reactors exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Fermentation agitators base cost [USD] (4.72e+04, 5.25e+04, 5.78e+04)</t>
+  </si>
+  <si>
+    <t>Fermentation agitators exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Fermentation agitators electricity rate [kW/m3] (0.00532, 0.00591, 0.0065)</t>
+  </si>
+  <si>
+    <t>Fermentation cleaning in place base cost [USD] (3.79e+05, 4.21e+05, 4.63e+05)</t>
+  </si>
+  <si>
+    <t>Fermentation cleaning in place exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Magnetic separator base cost [USD] (4.8e+05, 5.33e+05, 5.87e+05)</t>
+  </si>
+  <si>
+    <t>Magnetic separator exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Shredder base cost [USD] (2.25e+06, 2.5e+06, 2.75e+06)</t>
+  </si>
+  <si>
+    <t>Shredder exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Shredder electricity rate [hr·kW/kg] (0.0054, 0.006, 0.0066)</t>
+  </si>
+  <si>
+    <t>Liquids centrifuge base cost [USD] (2.53e+04, 2.81e+04, 3.09e+04)</t>
+  </si>
+  <si>
+    <t>Liquids centrifuge exponent (0.474, 0.574, 0.674)</t>
+  </si>
+  <si>
+    <t>Liquids centrifuge electricity rate [hr·kW/m³] (3.29, 3.66, 4.03)</t>
+  </si>
+  <si>
+    <t>Vent scrubber base cost [USD] (1.94e+05, 2.15e+05, 2.37e+05)</t>
+  </si>
+  <si>
+    <t>Vent scrubber exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Solids centrifuge base cost [USD] (6.12e+04, 6.8e+04, 7.48e+04)</t>
+  </si>
+  <si>
+    <t>Solids centrifuge exponent (0.4, 0.5, 0.6)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler base cost [USD] (2.57e+07, 2.86e+07, 3.14e+07)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler electricity rate [hr·kW/kg] (0.0104, 0.0115, 0.0127)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator base cost [USD] (2.74e+05, 3.05e+05, 3.36e+05)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg base cost [USD] (3.6e+04, 4e+04, 4.4e+04)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system base cost [USD] (7.02e+04, 7.8e+04, 8.58e+04)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator base cost [USD] (8.55e+06, 9.5e+06, 1.04e+07)</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator exponent (0.5, 0.6, 0.7)</t>
+  </si>
+  <si>
+    <t>Cooling tower base cost [USD] (1.24e+06, 1.38e+06, 1.51e+06)</t>
+  </si>
+  <si>
+    <t>Cooling tower exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Cooling tower electricity rate [hr·kW/kmol] (0.00258, 0.00287, 0.00315)</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump base cost [USD] (2.55e+05, 2.84e+05, 3.12e+05)</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump electricity rate [hr·kW/kmol] (0.00165, 0.00183, 0.00202)</t>
+  </si>
+  <si>
+    <t>Chilled water package base cost [USD] (1.24e+06, 1.38e+06, 1.51e+06)</t>
+  </si>
+  <si>
+    <t>Chilled water package exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Chilled water package electricity rate [hr·kW/kJ] (-3.9e-05, -4.33e-05, -4.76e-05)</t>
+  </si>
+  <si>
+    <t>Transesterification reactor base cost [USD] (1.35e+04, 1.5e+04, 1.65e+04)</t>
+  </si>
+  <si>
+    <t>Transesterification reactor exponent (0.45, 0.55, 0.65)</t>
+  </si>
+  <si>
+    <t>Transesterification reactor electricity rate [kW/m³] (1.35, 1.5, 1.65)</t>
+  </si>
+  <si>
+    <t>Conveying belt base cost [USD] (732, 813, 894)</t>
+  </si>
+  <si>
+    <t>Conveying belt exponent (0.28, 0.38, 0.48)</t>
+  </si>
+  <si>
+    <t>Clarifier base cost [USD] (2.45e+03, 2.72e+03, 2.99e+03)</t>
+  </si>
+  <si>
+    <t>Clarifier exponent (0.48, 0.58, 0.68)</t>
+  </si>
+  <si>
+    <t>Clarifier electricity rate [kW/ft²] (0.00045, 0.0005, 0.00055)</t>
+  </si>
+  <si>
+    <t>Process water center tank base cost [USD] (2.25e+05, 2.5e+05, 2.75e+05)</t>
+  </si>
+  <si>
+    <t>Process water center tank exponent (0.6, 0.7, 0.8)</t>
+  </si>
+  <si>
+    <t>Process water center process water pump base cost [USD] (1.38e+04, 1.53e+04, 1.68e+04)</t>
+  </si>
+  <si>
+    <t>Process water center process water pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Process water center process water pump electricity rate [hr·kW/kg] (9.7e-05, 0.000108, 0.000119)</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump base cost [USD] (6.18e+03, 6.86e+03, 7.55e+03)</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump exponent (0.7, 0.8, 0.9)</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump electricity rate [hr·kW/kg] (8.63e-05, 9.59e-05, 0.000105)</t>
+  </si>
+  <si>
     <t>Crushing mill base cost [USD] (1.35e+06, 1.5e+06, 1.65e+06)</t>
   </si>
   <si>
@@ -55,235 +235,46 @@
     <t>Crushing mill electricity rate [hr·kW/kg] (0.0054, 0.006, 0.0066)</t>
   </si>
   <si>
-    <t>Liquids centrifuge base cost [USD] (2.53e+04, 2.81e+04, 3.09e+04)</t>
-  </si>
-  <si>
-    <t>Liquids centrifuge exponent (0.474, 0.574, 0.674)</t>
-  </si>
-  <si>
-    <t>Liquids centrifuge electricity rate [hr·kW/m³] (3.29, 3.66, 4.03)</t>
-  </si>
-  <si>
-    <t>Vibrating screen base cost [USD] (909, 1.01e+03, 1.11e+03)</t>
-  </si>
-  <si>
-    <t>Vibrating screen exponent (0.81, 0.91, 1)</t>
-  </si>
-  <si>
-    <t>Transesterification reactor base cost [USD] (1.35e+04, 1.5e+04, 1.65e+04)</t>
-  </si>
-  <si>
-    <t>Transesterification reactor exponent (0.45, 0.55, 0.65)</t>
-  </si>
-  <si>
-    <t>Transesterification reactor electricity rate [kW/m3] (1.35, 1.5, 1.65)</t>
-  </si>
-  <si>
-    <t>Conveying belt base cost [USD] (732, 813, 894)</t>
-  </si>
-  <si>
-    <t>Conveying belt exponent (0.28, 0.38, 0.48)</t>
-  </si>
-  <si>
-    <t>Shredder base cost [USD] (2.25e+06, 2.5e+06, 2.75e+06)</t>
-  </si>
-  <si>
-    <t>Shredder exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Shredder electricity rate [hr·kW/kg] (0.0054, 0.006, 0.0066)</t>
-  </si>
-  <si>
-    <t>Fermentation reactors base cost [USD] (7.6e+05, 8.44e+05, 9.28e+05)</t>
-  </si>
-  <si>
-    <t>Fermentation reactors exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Fermentation agitators base cost [USD] (4.72e+04, 5.25e+04, 5.78e+04)</t>
-  </si>
-  <si>
-    <t>Fermentation agitators exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Fermentation agitators electricity rate [kW/m3] (0.00532, 0.00591, 0.0065)</t>
-  </si>
-  <si>
-    <t>Fermentation cleaning in place base cost [USD] (3.79e+05, 4.21e+05, 4.63e+05)</t>
-  </si>
-  <si>
-    <t>Fermentation cleaning in place exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler base cost [USD] (2.57e+07, 2.86e+07, 3.14e+07)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler electricity rate [hr·kW/kg] (0.0104, 0.0115, 0.0127)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator base cost [USD] (2.74e+05, 3.05e+05, 3.36e+05)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg base cost [USD] (3.6e+04, 4e+04, 4.4e+04)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system base cost [USD] (7.02e+04, 7.8e+04, 8.58e+04)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator base cost [USD] (8.55e+06, 9.5e+06, 1.04e+07)</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Magnetic separator base cost [USD] (4.8e+05, 5.33e+05, 5.87e+05)</t>
-  </si>
-  <si>
-    <t>Magnetic separator exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Vent scrubber base cost [USD] (1.94e+05, 2.15e+05, 2.37e+05)</t>
-  </si>
-  <si>
-    <t>Vent scrubber exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Solids centrifuge base cost [USD] (6.12e+04, 6.8e+04, 7.48e+04)</t>
-  </si>
-  <si>
-    <t>Solids centrifuge exponent (0.4, 0.5, 0.6)</t>
-  </si>
-  <si>
-    <t>Cooling tower base cost [USD] (1.24e+06, 1.38e+06, 1.51e+06)</t>
-  </si>
-  <si>
-    <t>Cooling tower exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Cooling tower electricity rate [hr·kW/kmol] (0.00258, 0.00287, 0.00315)</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump base cost [USD] (2.55e+05, 2.84e+05, 3.12e+05)</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump electricity rate [hr·kW/kmol] (0.00165, 0.00183, 0.00202)</t>
-  </si>
-  <si>
-    <t>Chilled water package base cost [USD] (1.24e+06, 1.38e+06, 1.51e+06)</t>
-  </si>
-  <si>
-    <t>Chilled water package exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Chilled water package electricity rate [hr·kW/kJ] (-3.9e-05, -4.33e-05, -4.76e-05)</t>
-  </si>
-  <si>
-    <t>Molecular sieve column base cost [USD] (2.34e+06, 2.6e+06, 2.86e+06)</t>
-  </si>
-  <si>
-    <t>Molecular sieve column exponent (0.5, 0.6, 0.7)</t>
-  </si>
-  <si>
-    <t>Molecular sieve column electricity rate [hr·kW/kg] (0.00599, 0.00666, 0.00732)</t>
-  </si>
-  <si>
-    <t>Process water center tank base cost [USD] (2.25e+05, 2.5e+05, 2.75e+05)</t>
-  </si>
-  <si>
-    <t>Process water center tank exponent (0.6, 0.7, 0.8)</t>
-  </si>
-  <si>
-    <t>Process water center process water pump base cost [USD] (1.38e+04, 1.53e+04, 1.68e+04)</t>
-  </si>
-  <si>
-    <t>Process water center process water pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Process water center process water pump electricity rate [hr·kW/kg] (9.7e-05, 0.000108, 0.000119)</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump base cost [USD] (6.18e+03, 6.86e+03, 7.55e+03)</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump exponent (0.7, 0.8, 0.9)</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump electricity rate [hr·kW/kg] (8.63e-05, 9.59e-05, 0.000105)</t>
-  </si>
-  <si>
-    <t>Clarifier base cost [USD] (2.45e+03, 2.72e+03, 2.99e+03)</t>
-  </si>
-  <si>
-    <t>Clarifier exponent (0.48, 0.58, 0.68)</t>
-  </si>
-  <si>
-    <t>Clarifier electricity rate [kW/ft²] (0.00045, 0.0005, 0.00055)</t>
-  </si>
-  <si>
-    <t>Stream-Methanol price [USD/kg] (0.492, 0.547, 0.602)</t>
-  </si>
-  <si>
-    <t>Stream-Catalyst price [USD/kg] (2.64, 2.93, 3.22)</t>
-  </si>
-  <si>
-    <t>Stream-Lipid cane price [USD/kg] (0.0311, 0.0345, 0.038)</t>
-  </si>
-  <si>
-    <t>Stream-Water 3 price [USD/kg] (0.000318, 0.000353, 0.000388)</t>
+    <t>Stream-catalyst price [USD/kg] (2.64, 2.93, 3.22)</t>
+  </si>
+  <si>
+    <t>Stream-makeup water price [USD/kg] (0.000229, 0.000254, 0.000279)</t>
+  </si>
+  <si>
+    <t>Stream-enzyme price [USD/kg] (0.45, 0.5, 0.55)</t>
+  </si>
+  <si>
+    <t>Stream-HCl2 price [USD/kg] (0.184, 0.205, 0.226)</t>
+  </si>
+  <si>
+    <t>Stream-lime price [USD/kg] (0.0693, 0.077, 0.0847)</t>
+  </si>
+  <si>
+    <t>Stream-denaturant price [USD/kg] (0.68, 0.756, 0.832)</t>
+  </si>
+  <si>
+    <t>Stream-lipid cane price [USD/kg] (0.0311, 0.0345, 0.038)</t>
+  </si>
+  <si>
+    <t>Stream-NaOH price [USD/kg] (0.369, 0.41, 0.451)</t>
+  </si>
+  <si>
+    <t>Stream-methanol price [USD/kg] (0.492, 0.547, 0.602)</t>
   </si>
   <si>
     <t>Stream-HCl1 price [USD/kg] (0.184, 0.205, 0.226)</t>
   </si>
   <si>
-    <t>Stream-Enzyme price [USD/kg] (0.45, 0.5, 0.55)</t>
-  </si>
-  <si>
-    <t>Stream-HCl2 price [USD/kg] (0.184, 0.205, 0.226)</t>
-  </si>
-  <si>
-    <t>Stream-Makeup water price [USD/kg] (0.000229, 0.000254, 0.000279)</t>
-  </si>
-  <si>
-    <t>Stream-NaOH price [USD/kg] (0.369, 0.41, 0.451)</t>
-  </si>
-  <si>
-    <t>Stream-BT makeup water price [USD/kg] (0.000229, 0.000254, 0.000279)</t>
-  </si>
-  <si>
-    <t>Stream-Denaturant price [USD/kg] (0.68, 0.756, 0.832)</t>
-  </si>
-  <si>
-    <t>Stream-CT makeup water price [USD/kg] (0.000229, 0.000254, 0.000279)</t>
-  </si>
-  <si>
-    <t>Stream-Lime price [USD/kg] (0.0693, 0.077, 0.0847)</t>
-  </si>
-  <si>
-    <t>Stream-Waste price [USD/kg] (-0.297, -0.33, -0.363)</t>
-  </si>
-  <si>
-    <t>Stream-Ethanol price [USD/kg] (0.71, 0.789, 0.868)</t>
-  </si>
-  <si>
-    <t>Stream-Crude glycerol price [USD/kg] (0.189, 0.21, 0.231)</t>
-  </si>
-  <si>
-    <t>Stream-Biodiesel price [USD/kg] (1.24, 1.38, 1.52)</t>
+    <t>Stream-biodiesel price [USD/kg] (1.24, 1.38, 1.52)</t>
+  </si>
+  <si>
+    <t>Stream-ethanol price [USD/kg] (0.71, 0.789, 0.868)</t>
+  </si>
+  <si>
+    <t>Stream-waste price [USD/kg] (-0.297, -0.33, -0.363)</t>
+  </si>
+  <si>
+    <t>Stream-crude glycerol price [USD/kg] (0.189, 0.21, 0.231)</t>
   </si>
   <si>
     <t>Electricity price [USD/kW] (0.0585, 0.065, 0.0715)</t>
@@ -313,7 +304,7 @@
     <t>Boiler turbogenerator-BT turbo generator efficiency (0.765, 0.85, 0.935)</t>
   </si>
   <si>
-    <t>Stream-Lipid cane lipid fraction (0.045, 0.05, 0.055)</t>
+    <t>Stream-lipid cane lipid fraction (0.045, 0.05, 0.055)</t>
   </si>
 </sst>
 </file>
@@ -671,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1489074392682976</v>
+        <v>0.1725319138452765</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -695,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.01371808662872346</v>
+        <v>-0.01748420066736802</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -703,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.01438361174334447</v>
+        <v>0.003083770299350812</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -711,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4125493626139745</v>
+        <v>0.4149359995094399</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -719,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.004580713911228556</v>
+        <v>0.05499877458395098</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -727,7 +718,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.08153027913321115</v>
+        <v>0.03083853137754125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -735,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.03007395614695824</v>
+        <v>-0.03430699884427995</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -743,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.08726177821047111</v>
+        <v>-0.07960313435212538</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -751,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.02427870394714815</v>
+        <v>-0.009712631332505254</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -759,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.01010319054812762</v>
+        <v>-0.006898298387931935</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -767,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.01184182204167288</v>
+        <v>-0.02436932593477304</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -775,7 +766,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.02606164040246561</v>
+        <v>0.0005346551253862049</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -783,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.002168592566743702</v>
+        <v>-0.002070511186820447</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -791,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.01865648858625954</v>
+        <v>0.02096266845450673</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -799,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.005423827128953084</v>
+        <v>-0.003442993961719758</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -807,7 +798,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.001305849268233971</v>
+        <v>0.02010329158813166</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -815,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.01963210696128427</v>
+        <v>0.02280887332835493</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -823,7 +814,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.01836697407867896</v>
+        <v>-0.01974924626196985</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -831,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.0008151084806043391</v>
+        <v>0.01416134149445366</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -839,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.01523788851351554</v>
+        <v>0.0006149294645971786</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -847,7 +838,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.008417030352681213</v>
+        <v>0.003016934424677376</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -855,7 +846,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.01329372293174892</v>
+        <v>-0.01058799728751989</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -863,7 +854,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.00364319976172799</v>
+        <v>-0.003764927382597095</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -871,7 +862,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.01060390544815622</v>
+        <v>-0.01170540190821607</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -879,7 +870,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.01528275200331008</v>
+        <v>0.006614444808577792</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -887,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.02080019891200795</v>
+        <v>0.00221059400842376</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -895,7 +886,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.0462690652107626</v>
+        <v>-0.01182175890487035</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -903,7 +894,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.02216050629442025</v>
+        <v>0.00826415553056622</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -911,7 +902,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.02398920940756837</v>
+        <v>0.02059042699961708</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -919,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.02272924295716972</v>
+        <v>-0.02328243789129751</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -927,7 +918,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.01946697725867909</v>
+        <v>-0.01564444171377767</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -935,7 +926,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.008528776181151046</v>
+        <v>-0.0344066951362678</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -943,7 +934,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.1070892446995698</v>
+        <v>-0.01293179139727166</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -951,7 +942,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.04071700242868009</v>
+        <v>-0.1504514529300581</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -959,7 +950,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.02043132120125284</v>
+        <v>0.07330031563601261</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -967,7 +958,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.001820433480817339</v>
+        <v>-0.003584496335379853</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -975,7 +966,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.01111756604470264</v>
+        <v>0.02206183144247326</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -983,7 +974,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.003989734239589369</v>
+        <v>0.001321487572859503</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -991,7 +982,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.002654725642189025</v>
+        <v>0.01656921695076867</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -999,7 +990,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.0001039365161574606</v>
+        <v>0.0052480349939214</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1007,7 +998,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.01127233101089324</v>
+        <v>0.003185686111427444</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1015,7 +1006,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.07251115442044616</v>
+        <v>0.009266243122649724</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1023,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.006671674634866985</v>
+        <v>-0.08063456655338265</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1031,7 +1022,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.007562260334490413</v>
+        <v>-0.04135466671018666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1039,7 +1030,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.005065998154639926</v>
+        <v>-0.007686301939452076</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1047,7 +1038,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.02561896883275875</v>
+        <v>-0.004797136703885468</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1055,7 +1046,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.0109487524379501</v>
+        <v>-0.003496516075860642</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1063,7 +1054,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.004431202353248094</v>
+        <v>0.0182949351957974</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1071,7 +1062,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.01180357660014306</v>
+        <v>0.0007857475514299019</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1079,7 +1070,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.001327440629097625</v>
+        <v>-0.01757830409513216</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1087,7 +1078,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.03041047657641906</v>
+        <v>0.003742704245708169</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1095,7 +1086,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-0.00606638376265535</v>
+        <v>0.02122657716906309</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1103,7 +1094,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.018859049938362</v>
+        <v>0.0296809901152396</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1111,7 +1102,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.004324153708966148</v>
+        <v>-0.003059581370383254</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1119,7 +1110,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.01574044181361767</v>
+        <v>0.004950949254037969</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1127,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.004839763681590547</v>
+        <v>-0.01113886354955454</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1135,7 +1126,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.006794736079789442</v>
+        <v>0.00304225000969</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1143,7 +1134,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.01133048934921957</v>
+        <v>-0.008733297373331894</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1151,7 +1142,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-0.008763394430535776</v>
+        <v>0.02779087551163502</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1159,7 +1150,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-0.003605566992222679</v>
+        <v>-0.008135901061436041</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1167,7 +1158,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.005564435646577425</v>
+        <v>0.002292683035707321</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1175,7 +1166,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.03184222668168906</v>
+        <v>-0.003814407032576281</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1183,7 +1174,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.01447029638681185</v>
+        <v>0.004281146379245854</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1191,7 +1182,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.009154599054183961</v>
+        <v>-0.003167084862683394</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1199,7 +1190,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.004511885172475407</v>
+        <v>0.01131219414848776</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1207,7 +1198,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.01111271122850845</v>
+        <v>0.0181887026475481</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1215,7 +1206,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-0.000189522151580886</v>
+        <v>-0.009090556395622255</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1223,7 +1214,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-0.006551501350060052</v>
+        <v>0.003389469735578789</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1231,7 +1222,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-0.01445915616236624</v>
+        <v>0.03789838289193531</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1239,7 +1230,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.0135111125404445</v>
+        <v>-0.02136295170251807</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1247,7 +1238,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.01843095913723836</v>
+        <v>-0.02059107154364286</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1255,7 +1246,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.03305357383414295</v>
+        <v>-0.0092533925621357</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1263,7 +1254,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.01164247544169902</v>
+        <v>-0.000242756649710266</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1271,7 +1262,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-0.004405038320201532</v>
+        <v>0.009928897357155892</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1279,7 +1270,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.4193366151094646</v>
+        <v>-0.03048529369941174</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1287,7 +1278,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.009192987151719486</v>
+        <v>-0.01443514041740561</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1295,7 +1286,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.006118880212755208</v>
+        <v>-0.002738125453525018</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1303,7 +1294,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.0266750377070015</v>
+        <v>-0.01521432867257315</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1311,7 +1302,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-0.0140867176194687</v>
+        <v>-0.4204570397942816</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1319,7 +1310,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-0.003317291556691662</v>
+        <v>0.02788469122738765</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1327,7 +1318,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.003268377442735097</v>
+        <v>-0.007305912100236484</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1335,7 +1326,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.01162003313680132</v>
+        <v>-0.005834167145366684</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1343,7 +1334,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-0.02372088622883545</v>
+        <v>0.2103274547170982</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1351,7 +1342,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-0.02800969628838785</v>
+        <v>0.4979887523035501</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1359,7 +1350,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.006205669880226795</v>
+        <v>-5.208374608334983e-05</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1367,7 +1358,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.01780180170407206</v>
+        <v>-0.01848252909130116</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1375,7 +1366,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.5333877997675119</v>
+        <v>0.1034500287460011</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1383,7 +1374,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.03182285234491409</v>
+        <v>0.006922027668881107</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1391,7 +1382,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.2504090100803604</v>
+        <v>-0.01276871283074851</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1399,7 +1390,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.1091698456787938</v>
+        <v>0.004384905295396212</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1407,7 +1398,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-0.008550597078023881</v>
+        <v>-0.0133142600205704</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1415,7 +1406,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.005346315093852603</v>
+        <v>0.4112192351367693</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1423,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.009237635985505437</v>
+        <v>-0.07968577355543094</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1431,7 +1422,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.007960153854406153</v>
+        <v>0.1711657909746316</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1439,7 +1430,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.3604550830262033</v>
+        <v>-0.009508386524335459</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1447,31 +1438,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.1064020095680804</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>0.1839403168936126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>0.009936774445470977</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>0.1116135313445412</v>
+        <v>0.08023265207330607</v>
       </c>
     </row>
   </sheetData>

--- a/biosteam/biorefineries/lipidcane/Spearman correlation lipidcane.xlsx
+++ b/biosteam/biorefineries/lipidcane/Spearman correlation lipidcane.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoelr\OneDrive\Code\biosteam\biosteam\biorefineries\lipidcane\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_83F2BDC81DD128E294170BC8731DDAA5512CCE59" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{4DE58650-2D22-4B40-94B9-9B70B6C5865C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -310,8 +316,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +380,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,9 +466,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,6 +518,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,19 +711,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="85.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -681,263 +734,263 @@
         <v>0.1725319138452765</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.01748420066736802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-1.748420066736802E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.003083770299350812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>3.0837702993508119E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4149359995094399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.41493599950943988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.05499877458395098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>5.4998774583950978E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.03083853137754125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>3.0838531377541251E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.03430699884427995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-3.430699884427995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.07960313435212538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-7.9603134352125376E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.009712631332505254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-9.7126313325052536E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.006898298387931935</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-6.8982983879319346E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.02436932593477304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-2.4369325934773041E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.0005346551253862049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>5.3465512538620487E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.002070511186820447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-2.0705111868204468E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.02096266845450673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>2.0962668454506731E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.003442993961719758</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-3.4429939617197582E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.02010329158813166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>2.010329158813166E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.02280887332835493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>2.280887332835493E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.01974924626196985</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>-1.974924626196985E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.01416134149445366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>1.4161341494453659E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.0006149294645971786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>6.1492946459717861E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.003016934424677376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>3.0169344246773759E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.01058799728751989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-1.058799728751989E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.003764927382597095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-3.764927382597095E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.01170540190821607</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-1.1705401908216071E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.006614444808577792</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>6.6144448085777921E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.00221059400842376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>2.2105940084237601E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.01182175890487035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-1.182175890487035E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.00826415553056622</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>8.2641555305662199E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.02059042699961708</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>2.0590426999617079E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.02328243789129751</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-2.3282437891297511E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.01564444171377767</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-1.5644441713777671E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.0344066951362678</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-3.4406695136267797E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.01293179139727166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-1.293179139727166E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -945,500 +998,500 @@
         <v>-0.1504514529300581</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.07330031563601261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>7.3300315636012608E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.003584496335379853</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>-3.5844963353798532E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.02206183144247326</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>2.206183144247326E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.001321487572859503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>1.321487572859503E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.01656921695076867</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>1.656921695076867E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.0052480349939214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>5.2480349939214004E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.003185686111427444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>3.1856861114274442E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.009266243122649724</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>9.2662431226497241E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-0.08063456655338265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-8.063456655338265E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.04135466671018666</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>-4.1354666710186658E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.007686301939452076</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-7.6863019394520756E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.004797136703885468</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-4.7971367038854677E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.003496516075860642</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-3.4965160758606418E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.0182949351957974</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>1.8294935195797401E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.0007857475514299019</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>7.857475514299019E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.01757830409513216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-1.7578304095132159E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.003742704245708169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>3.742704245708169E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.02122657716906309</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>2.122657716906309E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.0296809901152396</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>2.96809901152396E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.003059581370383254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-3.059581370383254E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.004950949254037969</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>4.9509492540379691E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-0.01113886354955454</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>-1.113886354955454E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.00304225000969</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>3.0422500096899999E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.008733297373331894</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-8.7332973733318942E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.02779087551163502</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>2.7790875511635019E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-0.008135901061436041</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-8.1359010614360412E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.002292683035707321</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>2.292683035707321E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.003814407032576281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-3.8144070325762812E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.004281146379245854</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>4.2811463792458539E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.003167084862683394</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-3.167084862683394E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.01131219414848776</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>1.131219414848776E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.0181887026475481</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>1.81887026475481E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-0.009090556395622255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-9.0905563956222551E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.003389469735578789</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>3.3894697355787888E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.03789838289193531</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>3.7898382891935312E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.02136295170251807</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-2.136295170251807E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.02059107154364286</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-2.0591071543642859E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.0092533925621357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-9.2533925621357E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.000242756649710266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-2.4275664971026601E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.009928897357155892</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>9.9288973571558924E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.03048529369941174</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-3.048529369941174E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.01443514041740561</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-1.4435140417405609E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.002738125453525018</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-2.738125453525018E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.01521432867257315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-1.5214328672573149E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-0.4204570397942816</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.42045703979428162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.02788469122738765</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>2.788469122738765E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.007305912100236484</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-7.3059121002364844E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-0.005834167145366684</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-5.8341671453666843E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.2103274547170982</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.21032745471709821</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.4979887523035501</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.49798875230355011</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-5.208374608334983e-05</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-5.2083746083349827E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-0.01848252909130116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-1.8482529091301159E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.1034500287460011</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.10345002874600109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.006922027668881107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>6.9220276688811066E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.01276871283074851</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-1.276871283074851E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.004384905295396212</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>4.3849052953962124E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-0.0133142600205704</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-1.3314260020570399E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.4112192351367693</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.41121923513676928</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.07968577355543094</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-7.9685773555430939E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.1711657909746316</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.17116579097463161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.009508386524335459</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>-9.5083865243354593E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.08023265207330607</v>
+        <v>8.0232652073306071E-2</v>
       </c>
     </row>
   </sheetData>

--- a/biosteam/biorefineries/lipidcane/Spearman correlation lipidcane.xlsx
+++ b/biosteam/biorefineries/lipidcane/Spearman correlation lipidcane.xlsx
@@ -37,6 +37,15 @@
     <t>Transesterification-R402 efficiency [0.81, 0.9, 0.99]</t>
   </si>
   <si>
+    <t>Crushing mill base cost (USD) [1.35e+06, 1.5e+06, 1.65e+06]</t>
+  </si>
+  <si>
+    <t>Crushing mill exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Crushing mill electricity rate (hr·kW/kg) [0.0054, 0.006, 0.0066]</t>
+  </si>
+  <si>
     <t>Transesterification reactor base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
   </si>
   <si>
@@ -46,31 +55,52 @@
     <t>Transesterification reactor electricity rate (kW/m³) [1.35, 1.5, 1.65]</t>
   </si>
   <si>
-    <t>Mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
-  </si>
-  <si>
-    <t>Mix tank exponent [0.425, 0.525, 0.625]</t>
-  </si>
-  <si>
-    <t>Mix tank electricity rate (kW/m³) [0.0887, 0.0985, 0.108]</t>
-  </si>
-  <si>
-    <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
-  </si>
-  <si>
-    <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Cooling tower electricity rate (hr·kW/kmol) [0.00258, 0.00287, 0.00315]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump electricity rate (hr·kW/kmol) [0.00165, 0.00183, 0.00202]</t>
+    <t>Boiler turbogenerator boiler base cost (USD) [2.77e+07, 3.07e+07, 3.38e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler exponent [0.552, 0.652, 0.752]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00368, 0.00409, 0.0045]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator base cost (USD) [2.9e+05, 3.22e+05, 3.55e+05]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator exponent [0.528, 0.628, 0.728]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.77e+04, 4.18e+04, 4.6e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg exponent [0.56, 0.66, 0.76]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system base cost (USD) [6.81e+04, 7.57e+04, 8.33e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system exponent [0.509, 0.609, 0.709]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.63e+06, 9.58e+06, 1.05e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator exponent [0.504, 0.604, 0.704]</t>
+  </si>
+  <si>
+    <t>Mix tank base cost (USD) [1.1e+04, 1.23e+04, 1.35e+04]</t>
+  </si>
+  <si>
+    <t>Mix tank exponent [0.48, 0.58, 0.68]</t>
+  </si>
+  <si>
+    <t>Mix tank electricity rate (kW/m³) [0.0863, 0.0959, 0.105]</t>
+  </si>
+  <si>
+    <t>Solids centrifuge base cost (USD) [6.12e+04, 6.8e+04, 7.48e+04]</t>
+  </si>
+  <si>
+    <t>Solids centrifuge exponent [0.4, 0.5, 0.6]</t>
   </si>
   <si>
     <t>Split centrifuge  LLE liquids centrifuge base cost (USD) [2.53e+04, 2.81e+04, 3.09e+04]</t>
@@ -82,13 +112,37 @@
     <t>Split centrifuge  LLE liquids centrifuge electricity rate (hr·kW/m³) [3.29, 3.66, 4.03]</t>
   </si>
   <si>
-    <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
-  </si>
-  <si>
-    <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Chilled water package electricity rate (hr·kW/kJ) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+    <t>Process water center tank base cost (USD) [2.18e+05, 2.43e+05, 2.67e+05]</t>
+  </si>
+  <si>
+    <t>Process water center tank exponent [0.575, 0.675, 0.775]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump base cost (USD) [1.37e+04, 1.52e+04, 1.67e+04]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump exponent [0.651, 0.751, 0.851]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump electricity rate (hr·kW/kg) [9.19e-05, 0.000102, 0.000112]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump base cost (USD) [5.95e+03, 6.61e+03, 7.27e+03]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump exponent [0.671, 0.771, 0.871]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump electricity rate (hr·kW/kg) [8.61e-05, 9.57e-05, 0.000105]</t>
+  </si>
+  <si>
+    <t>Shredder base cost (USD) [2.25e+06, 2.5e+06, 2.75e+06]</t>
+  </si>
+  <si>
+    <t>Shredder exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Shredder electricity rate (hr·kW/kg) [0.0054, 0.006, 0.0066]</t>
   </si>
   <si>
     <t>Conveying belt base cost (USD) [732, 813, 894]</t>
@@ -97,13 +151,13 @@
     <t>Conveying belt exponent [0.28, 0.38, 0.48]</t>
   </si>
   <si>
-    <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
-  </si>
-  <si>
-    <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Molecular sieve column electricity rate (hr·kW/kg) [0.00599, 0.00666, 0.00732]</t>
+    <t>Chilled water package base cost (USD) [1.25e+06, 1.39e+06, 1.53e+06]</t>
+  </si>
+  <si>
+    <t>Chilled water package exponent [0.54, 0.64, 0.74]</t>
+  </si>
+  <si>
+    <t>Chilled water package electricity rate (hr·kW/kJ) [-3.66e-05, -4.06e-05, -4.47e-05]</t>
   </si>
   <si>
     <t>Vibrating screen base cost (USD) [909, 1.01e+03, 1.11e+03]</t>
@@ -112,6 +166,30 @@
     <t>Vibrating screen exponent [0.81, 0.91, 1]</t>
   </si>
   <si>
+    <t>Molecular sieve column base cost (USD) [2.45e+06, 2.72e+06, 3e+06]</t>
+  </si>
+  <si>
+    <t>Molecular sieve column exponent [0.509, 0.609, 0.709]</t>
+  </si>
+  <si>
+    <t>Molecular sieve column electricity rate (hr·kW/kg) [0.00597, 0.00663, 0.0073]</t>
+  </si>
+  <si>
+    <t>Vent scrubber base cost (USD) [1.98e+05, 2.2e+05, 2.42e+05]</t>
+  </si>
+  <si>
+    <t>Vent scrubber exponent [0.488, 0.588, 0.688]</t>
+  </si>
+  <si>
+    <t>Clarifier base cost (USD) [2.45e+03, 2.72e+03, 2.99e+03]</t>
+  </si>
+  <si>
+    <t>Clarifier exponent [0.48, 0.58, 0.68]</t>
+  </si>
+  <si>
+    <t>Clarifier electricity rate (kW/ft²) [0.00045, 0.0005, 0.00055]</t>
+  </si>
+  <si>
     <t>Fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
   </si>
   <si>
@@ -133,43 +211,22 @@
     <t>Fermentation cleaning in place exponent [0.5, 0.6, 0.7]</t>
   </si>
   <si>
-    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
-  </si>
-  <si>
-    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler electricity rate (hr·kW/kg) [0.00377, 0.00419, 0.00461]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+    <t>Cooling tower base cost (USD) [1.19e+06, 1.32e+06, 1.45e+06]</t>
+  </si>
+  <si>
+    <t>Cooling tower exponent [0.565, 0.665, 0.765]</t>
+  </si>
+  <si>
+    <t>Cooling tower electricity rate (hr·kW/kmol) [0.00251, 0.00279, 0.00307]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump base cost (USD) [2.36e+05, 2.63e+05, 2.89e+05]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump exponent [0.656, 0.756, 0.856]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump electricity rate (hr·kW/kmol) [0.00165, 0.00184, 0.00202]</t>
   </si>
   <si>
     <t>Magnetic separator base cost (USD) [4.8e+05, 5.33e+05, 5.87e+05]</t>
@@ -178,118 +235,61 @@
     <t>Magnetic separator exponent [0.5, 0.6, 0.7]</t>
   </si>
   <si>
-    <t>Solids centrifuge base cost (USD) [6.12e+04, 6.8e+04, 7.48e+04]</t>
-  </si>
-  <si>
-    <t>Solids centrifuge exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Shredder base cost (USD) [2.25e+06, 2.5e+06, 2.75e+06]</t>
-  </si>
-  <si>
-    <t>Shredder exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Shredder electricity rate (hr·kW/kg) [0.0054, 0.006, 0.0066]</t>
-  </si>
-  <si>
-    <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
-  </si>
-  <si>
-    <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump electricity rate (hr·kW/kg) [9.7e-05, 0.000108, 0.000119]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump electricity rate (hr·kW/kg) [8.63e-05, 9.59e-05, 0.000105]</t>
-  </si>
-  <si>
-    <t>Clarifier base cost (USD) [2.45e+03, 2.72e+03, 2.99e+03]</t>
-  </si>
-  <si>
-    <t>Clarifier exponent [0.48, 0.58, 0.68]</t>
-  </si>
-  <si>
-    <t>Clarifier electricity rate (kW/ft²) [0.00045, 0.0005, 0.00055]</t>
-  </si>
-  <si>
-    <t>Crushing mill base cost (USD) [1.35e+06, 1.5e+06, 1.65e+06]</t>
-  </si>
-  <si>
-    <t>Crushing mill exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Crushing mill electricity rate (hr·kW/kg) [0.0054, 0.006, 0.0066]</t>
+    <t>Stream-catalyst price (USD/kg) [2.64, 2.93, 3.22]</t>
+  </si>
+  <si>
+    <t>Stream-makeup water price (USD/kg) [0.000229, 0.000254, 0.000279]</t>
   </si>
   <si>
     <t>Stream-HCl1 price (USD/kg) [0.184, 0.205, 0.226]</t>
   </si>
   <si>
+    <t>Stream-enzyme price (USD/kg) [0.45, 0.5, 0.55]</t>
+  </si>
+  <si>
+    <t>Stream-HCl2 price (USD/kg) [0.184, 0.205, 0.226]</t>
+  </si>
+  <si>
+    <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
+  </si>
+  <si>
+    <t>Stream-lime price (USD/kg) [0.0693, 0.077, 0.0847]</t>
+  </si>
+  <si>
+    <t>Stream-NaOH price (USD/kg) [0.369, 0.41, 0.451]</t>
+  </si>
+  <si>
+    <t>Stream-methanol price (USD/kg) [0.492, 0.547, 0.602]</t>
+  </si>
+  <si>
     <t>Stream-lipid cane price (USD/kg) [0.0311, 0.0345, 0.038]</t>
   </si>
   <si>
-    <t>Stream-methanol price (USD/kg) [0.492, 0.547, 0.602]</t>
-  </si>
-  <si>
-    <t>Stream-makeup water price (USD/kg) [0.000229, 0.000254, 0.000279]</t>
-  </si>
-  <si>
-    <t>Stream-catalyst price (USD/kg) [2.64, 2.93, 3.22]</t>
-  </si>
-  <si>
-    <t>Stream-enzyme price (USD/kg) [0.45, 0.5, 0.55]</t>
-  </si>
-  <si>
-    <t>Stream-HCl2 price (USD/kg) [0.184, 0.205, 0.226]</t>
-  </si>
-  <si>
-    <t>Stream-lime price (USD/kg) [0.0693, 0.077, 0.0847]</t>
-  </si>
-  <si>
-    <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
-  </si>
-  <si>
-    <t>Stream-NaOH price (USD/kg) [0.369, 0.41, 0.451]</t>
+    <t>Stream-crude glycerol price (USD/kg) [0.189, 0.21, 0.231]</t>
+  </si>
+  <si>
+    <t>Stream-biodiesel price (USD/kg) [1.24, 1.38, 1.52]</t>
+  </si>
+  <si>
+    <t>Stream-ethanol price (USD/kg) [0.71, 0.789, 0.868]</t>
   </si>
   <si>
     <t>Stream-waste price (USD/kg) [-0.297, -0.33, -0.363]</t>
   </si>
   <si>
-    <t>Stream-crude glycerol price (USD/kg) [0.189, 0.21, 0.231]</t>
-  </si>
-  <si>
-    <t>Stream-biodiesel price (USD/kg) [1.24, 1.38, 1.52]</t>
-  </si>
-  <si>
-    <t>Stream-ethanol price (USD/kg) [0.71, 0.789, 0.868]</t>
-  </si>
-  <si>
     <t>Electricity price (USD/kWhr) [0.0585, 0.065, 0.0715]</t>
   </si>
   <si>
-    <t>Chilled Brine price (USD/kJ) [-7.33e-06, -8.15e-06, -8.96e-06]</t>
+    <t>Chilled Brine price (USD/kJ) [-6.91e-06, -7.67e-06, -8.44e-06]</t>
   </si>
   <si>
     <t>Low pressure steam price (USD/kmol) [0.276, 0.306, 0.337]</t>
   </si>
   <si>
-    <t>Medium pressure steam price (USD/kmol) [0.248, 0.276, 0.303]</t>
-  </si>
-  <si>
-    <t>High pressure steam price (USD/kmol) [0.285, 0.317, 0.349]</t>
+    <t>Medium pressure steam price (USD/kmol) [0.24, 0.266, 0.293]</t>
+  </si>
+  <si>
+    <t>High pressure steam price (USD/kmol) [0.28, 0.311, 0.342]</t>
   </si>
   <si>
     <t>TEA income tax [0.315, 0.35, 0.385]</t>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1894500706500028</v>
+        <v>0.1750069992882799</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.01782867373714695</v>
+        <v>-0.04151570354862814</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.006900203892008155</v>
+        <v>-0.01651782142871285</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4296260254090409</v>
+        <v>0.4542934595797384</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.04151795110071804</v>
+        <v>0.01619183949567358</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -715,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.01757883094315324</v>
+        <v>0.02645612928224517</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.02385554418622176</v>
+        <v>-0.01123564230542569</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -731,7 +731,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.02940906223236249</v>
+        <v>-0.02436246337449853</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.02867782578711303</v>
+        <v>0.004802784384111375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -747,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.009325486645019464</v>
+        <v>-0.001905364876214595</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -755,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.07927510080300401</v>
+        <v>0.006020867664834705</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -763,7 +763,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.02705632687425307</v>
+        <v>-0.02623472591338903</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -771,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.01103308172132327</v>
+        <v>-0.1557419194456768</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -779,7 +779,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-4.741248189649926e-06</v>
+        <v>-0.004071562050862482</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -787,7 +787,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.00976885776675431</v>
+        <v>0.001719368228774729</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -795,7 +795,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.01006696139467846</v>
+        <v>0.003041697913667916</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -803,7 +803,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.005643377505735099</v>
+        <v>-0.02203013291320531</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -811,7 +811,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.02388897685955907</v>
+        <v>0.01767189689887588</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -819,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.002076874451074978</v>
+        <v>0.00414095325363813</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -827,7 +827,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.01351102297244092</v>
+        <v>0.004166134342645373</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -835,7 +835,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.001698416227936649</v>
+        <v>-0.02715844217433768</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -843,7 +843,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.02790181234807249</v>
+        <v>-0.07684495046579801</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -851,7 +851,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.005788036359521452</v>
+        <v>-0.03344682200987287</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -859,7 +859,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.01392593162903726</v>
+        <v>-0.0145198175087927</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -867,7 +867,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.00665546628221865</v>
+        <v>-0.08036774097470964</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -875,7 +875,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.002328554397142176</v>
+        <v>-0.007188345887533835</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -883,7 +883,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.00414418077376723</v>
+        <v>0.02267398689095947</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -891,7 +891,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.004046611649864465</v>
+        <v>0.02964331625773265</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -899,7 +899,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.02770974523638981</v>
+        <v>-0.009492420859696832</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -907,7 +907,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.007596197583847901</v>
+        <v>0.007417325960693037</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -915,7 +915,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.0329728425349137</v>
+        <v>0.01627659645906386</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -923,7 +923,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.00817955475918219</v>
+        <v>0.02473541033341641</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -931,7 +931,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.0324544200501768</v>
+        <v>0.005794310151772406</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -939,7 +939,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.009723250564930022</v>
+        <v>0.0007073904282956171</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -947,7 +947,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.0007176031007041238</v>
+        <v>0.01669077676363107</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -955,7 +955,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.001162952302518092</v>
+        <v>-0.005410935576437422</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -963,7 +963,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.03050106410004256</v>
+        <v>0.001977073135082925</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -971,7 +971,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.01181468965658758</v>
+        <v>-0.004430197137207885</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -979,7 +979,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.006470552898822115</v>
+        <v>-0.004320969196838767</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -987,7 +987,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.002283437467337498</v>
+        <v>-0.02366623179464927</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.1711408377896335</v>
+        <v>0.002341253085650123</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.004357778862311154</v>
+        <v>-0.01445304605012184</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.01164252776170111</v>
+        <v>0.00586723079468923</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.01341952700078108</v>
+        <v>0.01252726398909056</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.008997190727887627</v>
+        <v>-0.01174393563775742</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.00177479200699168</v>
+        <v>0.004827751297110052</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.01007517899500716</v>
+        <v>0.01444829779393191</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.002137394869495795</v>
+        <v>0.00654738650189546</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.003791789623671584</v>
+        <v>-0.03241374724854989</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.06113633111745323</v>
+        <v>-0.00918474555138982</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.04865220281008811</v>
+        <v>0.002064124882564995</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.01174497627779905</v>
+        <v>0.008302259372090373</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.004918095844723832</v>
+        <v>-0.002569682598787303</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1099,7 +1099,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.01596273635050945</v>
+        <v>-0.004042955777718231</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1107,7 +1107,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.01761695849667834</v>
+        <v>0.009831362985254518</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1115,7 +1115,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.001542693085707723</v>
+        <v>0.01070797223631889</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1123,7 +1123,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.01727403966696158</v>
+        <v>-0.005961298606451943</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1131,7 +1131,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.0195295025411801</v>
+        <v>-0.001525387357015494</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1139,7 +1139,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.02880005692800227</v>
+        <v>0.05597120892684834</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1147,7 +1147,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-0.03021663740066549</v>
+        <v>0.008150699078027963</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1155,7 +1155,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.002861261970450478</v>
+        <v>-0.007090304443612178</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1163,7 +1163,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.007102059932082396</v>
+        <v>0.003727811093112443</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1171,7 +1171,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.02484572172982887</v>
+        <v>0.01971573438862937</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1179,7 +1179,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.02874038572561543</v>
+        <v>-0.007290680163627205</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1187,7 +1187,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.008500596916023876</v>
+        <v>0.01308014356320574</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1195,7 +1195,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.00991543431661737</v>
+        <v>-0.001827104521084181</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1203,7 +1203,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-0.003819226904769076</v>
+        <v>-0.01352152930886117</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1211,7 +1211,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-0.004736441853457674</v>
+        <v>-0.02251419277256771</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1219,7 +1219,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.03157262065490482</v>
+        <v>0.01755408982216359</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1227,7 +1227,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.0321052826282113</v>
+        <v>0.007175544191021767</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1235,7 +1235,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.01162438395297536</v>
+        <v>-0.00454423525376941</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1243,7 +1243,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.006064780562591222</v>
+        <v>-0.01122380915295236</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1251,7 +1251,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.02596051630242065</v>
+        <v>-0.02245980598639223</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1259,7 +1259,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-0.463022124952885</v>
+        <v>0.002289934843597393</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1267,7 +1267,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.01528576419543057</v>
+        <v>-0.007958265726330628</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1275,7 +1275,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.007715151380606055</v>
+        <v>-0.02993146410925856</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1283,7 +1283,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.00103095700123828</v>
+        <v>0.003664628594585143</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1291,7 +1291,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.04965548118621924</v>
+        <v>-0.005136937357477494</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1299,7 +1299,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.00381793052071722</v>
+        <v>0.01551870590074823</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1307,7 +1307,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-0.006974652470986099</v>
+        <v>-0.004241180233647209</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1315,7 +1315,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.003648980593959223</v>
+        <v>0.01649897681995907</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1323,7 +1323,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-0.01529868061194722</v>
+        <v>-0.4645640556065622</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1331,7 +1331,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.01472414353296574</v>
+        <v>0.005178009231120368</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1339,7 +1339,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.01746650901866036</v>
+        <v>0.2196863130754525</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1347,7 +1347,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.2412087777123511</v>
+        <v>0.5693501776540071</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1355,7 +1355,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.5726778942351157</v>
+        <v>-0.009871173130846924</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1363,7 +1363,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.1692489404659576</v>
+        <v>0.1495778443511137</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1371,7 +1371,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.0005827828073113122</v>
+        <v>0.0100317050092682</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1379,7 +1379,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.01916838287873531</v>
+        <v>0.004756349278253971</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1387,7 +1387,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.01510573730822949</v>
+        <v>0.001413917144556686</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1395,7 +1395,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.009850127722005107</v>
+        <v>0.02486348230653929</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.1165429233177169</v>
+        <v>-0.08909852228394087</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1411,7 +1411,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.1992897822755913</v>
+        <v>0.1554922693236908</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1419,7 +1419,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.01435070908602836</v>
+        <v>0.005897550763902031</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1427,7 +1427,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.09579671442386856</v>
+        <v>0.1147308344452334</v>
       </c>
     </row>
   </sheetData>

--- a/biosteam/biorefineries/lipidcane/Spearman correlation lipidcane.xlsx
+++ b/biosteam/biorefineries/lipidcane/Spearman correlation lipidcane.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoelr\OneDrive\Code\biosteam\biosteam\biorefineries\lipidcane\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F1869ECEB5D12DFF6C160B611BDCFDF5512C7E5C" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{59A85A29-7C35-4596-9F8D-3A80219188BD}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10483" yWindow="1544" windowWidth="11635" windowHeight="10137" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -307,8 +313,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +377,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,9 +463,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,6 +515,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -658,19 +708,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -678,663 +731,663 @@
         <v>0.1750069992882799</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.04151570354862814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-4.1515703548628137E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.01651782142871285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-1.6517821428712848E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4542934595797384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.45429345957973838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.01619183949567358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>1.6191839495673582E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.02645612928224517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>2.645612928224517E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.01123564230542569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-1.123564230542569E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.02436246337449853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-2.436246337449853E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.004802784384111375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>4.8027843841113747E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.001905364876214595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-1.9053648762145949E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.006020867664834705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>6.0208676648347047E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.02623472591338903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-2.6234725913389031E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.1557419194456768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.15574191944567681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.004071562050862482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-4.0715620508624817E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.001719368228774729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>1.719368228774729E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.003041697913667916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>3.041697913667916E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.02203013291320531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>-2.2030132913205311E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.01767189689887588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>1.7671896898875879E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.00414095325363813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>4.1409532536381298E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.004166134342645373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>4.1661343426453732E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.02715844217433768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-2.7158442174337681E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.07684495046579801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-7.6844950465798006E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.03344682200987287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-3.3446822009872867E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.0145198175087927</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-1.45198175087927E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.08036774097470964</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-8.0367740974709639E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.007188345887533835</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>-7.1883458875338351E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.02267398689095947</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>2.267398689095947E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.02964331625773265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>2.9643316257732651E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.009492420859696832</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-9.4924208596968325E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.007417325960693037</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>7.4173259606930371E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.01627659645906386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>1.6276596459063861E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.02473541033341641</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>2.4735410333416408E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.005794310151772406</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>5.7943101517724058E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.0007073904282956171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>7.0739042829561709E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.01669077676363107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>1.6690776763631069E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.005410935576437422</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>-5.4109355764374216E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.001977073135082925</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>1.9770731350829251E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.004430197137207885</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-4.4301971372078851E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.004320969196838767</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-4.3209691968387667E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.02366623179464927</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-2.3666231794649269E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.002341253085650123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>2.341253085650123E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.01445304605012184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-1.445304605012184E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.00586723079468923</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>5.8672307946892304E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.01252726398909056</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>1.252726398909056E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.01174393563775742</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-1.174393563775742E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.004827751297110052</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>4.8277512971100518E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.01444829779393191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>1.444829779393191E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.00654738650189546</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>6.5473865018954597E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.03241374724854989</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-3.2413747248549889E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.00918474555138982</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-9.1847455513898203E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.002064124882564995</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>2.0641248825649951E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.008302259372090373</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>8.3022593720903735E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.002569682598787303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-2.5696825987873029E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.004042955777718231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-4.0429557777182309E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.009831362985254518</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>9.8313629852545183E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.01070797223631889</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>1.0707972236318889E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-0.005961298606451943</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-5.9612986064519428E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.001525387357015494</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-1.525387357015494E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.05597120892684834</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>5.5971208926848343E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.008150699078027963</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>8.1506990780279634E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.007090304443612178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-7.0903044436121778E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.003727811093112443</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>3.7278110931124428E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.01971573438862937</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>1.971573438862937E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.007290680163627205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-7.2906801636272046E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.01308014356320574</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>1.308014356320574E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.001827104521084181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-1.827104521084181E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-0.01352152930886117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-1.352152930886117E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-0.02251419277256771</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-2.251419277256771E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.01755408982216359</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>1.7554089822163589E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.007175544191021767</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>7.1755441910217668E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.00454423525376941</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-4.5442352537694098E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.01122380915295236</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-1.122380915295236E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.02245980598639223</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-2.2459805986392231E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.002289934843597393</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>2.2899348435973929E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.007958265726330628</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-7.9582657263306284E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.02993146410925856</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-2.9931464109258558E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.003664628594585143</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>3.6646285945851429E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.005136937357477494</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-5.1369373574774941E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.01551870590074823</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>1.551870590074823E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-0.004241180233647209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-4.241180233647209E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.01649897681995907</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>1.6498976819959071E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-0.4645640556065622</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.46456405560656222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.005178009231120368</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>5.1780092311203684E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -1342,87 +1395,87 @@
         <v>0.2196863130754525</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.5693501776540071</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.56935017765400708</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-0.009871173130846924</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-9.871173130846924E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.1495778443511137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.14957784435111371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.0100317050092682</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>1.0031705009268199E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.004756349278253971</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>4.7563492782539711E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.001413917144556686</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>1.4139171445566861E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.02486348230653929</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>2.486348230653929E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.08909852228394087</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-8.909852228394087E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.1554922693236908</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.15549226932369081</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.005897550763902031</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>5.8975507639020307E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
